--- a/06-junio/2_TETTAMANTI/TETTAMANTI.xlsx
+++ b/06-junio/2_TETTAMANTI/TETTAMANTI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\05-mayo\2_TETTAMANTI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\06-junio\2_TETTAMANTI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FA1F29-4E95-4284-8974-D8D761F9FB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3ADBD5-00DB-4E48-8905-5D0BF2831E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28155" yWindow="1980" windowWidth="25470" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27375" yWindow="480" windowWidth="26520" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>TETTAMANTI</t>
   </si>
@@ -53,9 +53,6 @@
     <t>PLANILLA DE CALCULO DDJJ 931</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">REM </t>
   </si>
   <si>
@@ -74,7 +71,7 @@
     <t>NO REM</t>
   </si>
   <si>
-    <t>MAYO 2025</t>
+    <t>JUNIO Y SAC 2025</t>
   </si>
 </sst>
 </file>
@@ -493,17 +490,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -517,7 +514,7 @@
     </row>
     <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
@@ -547,19 +544,19 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="E6" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>4</v>
@@ -568,7 +565,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
@@ -576,63 +573,104 @@
         <v>2</v>
       </c>
       <c r="B7" s="8">
-        <v>559416.5</v>
+        <v>606814.81000000006</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
       </c>
       <c r="D7" s="8">
         <f>SUM(B7:C7)</f>
-        <v>559416.5</v>
+        <v>606814.81000000006</v>
       </c>
       <c r="E7" s="10">
-        <v>24750.89</v>
+        <v>20000</v>
       </c>
       <c r="F7" s="10">
         <v>0</v>
       </c>
       <c r="G7" s="10">
         <f>+E7+F7</f>
-        <v>24750.89</v>
+        <v>20000</v>
       </c>
       <c r="H7" s="6">
         <f>+D7+G7</f>
-        <v>584167.39</v>
+        <v>626814.81000000006</v>
       </c>
       <c r="I7" s="6">
         <f>+H7*2</f>
-        <v>1168334.78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="11">
-        <v>958332.66</v>
-      </c>
-      <c r="C10" s="11"/>
+        <v>1253629.6200000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8">
+        <v>606814.81000000006</v>
+      </c>
+      <c r="C10" s="8">
+        <v>303407.40999999997</v>
+      </c>
+      <c r="D10" s="8">
+        <f>SUM(B10:C10)</f>
+        <v>910222.22</v>
+      </c>
+      <c r="E10" s="10">
+        <v>20000</v>
+      </c>
+      <c r="F10" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G10" s="10">
+        <f>+E10+F10</f>
+        <v>30000</v>
+      </c>
+      <c r="H10" s="6">
+        <f>+D10+G10</f>
+        <v>940222.22</v>
+      </c>
+      <c r="I10" s="6">
+        <f>+H10*2</f>
+        <v>1880444.44</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="11">
-        <v>28080.78</v>
-      </c>
-      <c r="C12" s="11">
-        <v>28749.98</v>
-      </c>
-      <c r="D12" s="12">
-        <f>+B12-C12</f>
-        <v>-669.20000000000073</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
